--- a/Heesuk/Kwak_Data fields Description.xlsx
+++ b/Heesuk/Kwak_Data fields Description.xlsx
@@ -8,21 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/ml_lab/Heesuk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9673A3B0-6F73-0C42-BF7E-28139AC6BD76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4499C4-A692-944B-99FF-609ABF13A744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="24440" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data fields Description" sheetId="1" r:id="rId1"/>
     <sheet name="data description(한글)" sheetId="3" r:id="rId2"/>
     <sheet name="data description" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1058">
   <si>
     <t>Data fields</t>
   </si>
@@ -3315,12 +3323,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>범주(ordinal) / num</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>factor</t>
   </si>
 </sst>
 </file>
@@ -4404,8 +4414,8 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4484,7 +4494,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>1054</v>
@@ -4505,7 +4515,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>1054</v>
@@ -4524,7 +4534,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>1049</v>
@@ -4543,7 +4553,7 @@
       <c r="D10" s="12"/>
       <c r="E10" s="1"/>
       <c r="F10" s="8" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>1049</v>
@@ -4564,7 +4574,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="8" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>1054</v>
@@ -4585,7 +4595,7 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="8" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>1054</v>
@@ -4606,7 +4616,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="8" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>1054</v>
@@ -4627,7 +4637,7 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="8" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>1054</v>
@@ -4647,7 +4657,9 @@
         <v>966</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -4664,7 +4676,9 @@
         <v>968</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -4681,7 +4695,9 @@
         <v>970</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -4698,7 +4714,9 @@
         <v>971</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -4715,7 +4733,9 @@
         <v>972</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -4732,7 +4752,9 @@
         <v>973</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -4749,7 +4771,9 @@
         <v>974</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -4766,7 +4790,9 @@
         <v>975</v>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -4784,10 +4810,10 @@
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="8" t="s">
-        <v>1049</v>
+        <v>1056</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4804,7 +4830,9 @@
         <v>977</v>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -4823,7 +4851,9 @@
       <c r="E25" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -4842,7 +4872,9 @@
       <c r="E26" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -4859,7 +4891,9 @@
         <v>983</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -4876,7 +4910,9 @@
         <v>984</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -4893,7 +4929,9 @@
         <v>985</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -4910,7 +4948,9 @@
         <v>986</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -4927,7 +4967,9 @@
         <v>988</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+      <c r="F31" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -4944,7 +4986,9 @@
         <v>992</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="F32" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -4961,7 +5005,9 @@
         <v>991</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
+      <c r="F33" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
@@ -4978,7 +5024,9 @@
         <v>993</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
@@ -4995,7 +5043,9 @@
         <v>994</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="F35" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
@@ -5012,7 +5062,9 @@
         <v>995</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="F36" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
@@ -5029,7 +5081,9 @@
         <v>997</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
@@ -5046,7 +5100,9 @@
         <v>999</v>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
@@ -5063,7 +5119,9 @@
         <v>1000</v>
       </c>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
@@ -5080,7 +5138,9 @@
         <v>1001</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
@@ -5097,7 +5157,9 @@
         <v>1002</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="F41" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
@@ -5114,7 +5176,9 @@
         <v>1001</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="F42" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
@@ -5131,7 +5195,9 @@
         <v>1003</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="F43" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
@@ -5148,7 +5214,9 @@
         <v>1004</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="F44" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
@@ -5165,7 +5233,9 @@
         <v>1005</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="F45" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
@@ -5182,7 +5252,9 @@
         <v>1006</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
@@ -5199,7 +5271,9 @@
         <v>1007</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
@@ -5216,7 +5290,9 @@
         <v>1008</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
@@ -5233,7 +5309,9 @@
         <v>1010</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" t="s">
+        <v>1056</v>
+      </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
@@ -5250,7 +5328,9 @@
         <v>1009</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" t="s">
+        <v>1056</v>
+      </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
@@ -5267,7 +5347,9 @@
         <v>1011</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
@@ -5284,7 +5366,9 @@
         <v>1013</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
@@ -5301,7 +5385,9 @@
         <v>1014</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
@@ -5318,7 +5404,9 @@
         <v>1015</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="F54" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
@@ -5335,7 +5423,9 @@
         <v>1016</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="F55" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
@@ -5352,7 +5442,9 @@
         <v>1017</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="F56" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
@@ -5369,7 +5461,9 @@
         <v>1018</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="F57" t="s">
+        <v>1056</v>
+      </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
@@ -5386,7 +5480,9 @@
         <v>1019</v>
       </c>
       <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+      <c r="F58" t="s">
+        <v>1056</v>
+      </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
@@ -5403,7 +5499,9 @@
         <v>1020</v>
       </c>
       <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="F59" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
@@ -5420,7 +5518,9 @@
         <v>1021</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7">
@@ -5437,7 +5537,9 @@
         <v>1022</v>
       </c>
       <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="F61" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7">
@@ -5454,7 +5556,9 @@
         <v>1023</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7">
@@ -5471,7 +5575,9 @@
         <v>1024</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+      <c r="F63" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7">
@@ -5488,7 +5594,9 @@
         <v>1025</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="F64" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7">
@@ -5507,7 +5615,9 @@
       <c r="E65" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="F65" s="1"/>
+      <c r="F65" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7">
@@ -5524,7 +5634,9 @@
         <v>1027</v>
       </c>
       <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
+      <c r="F66" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7">
@@ -5541,7 +5653,9 @@
         <v>1028</v>
       </c>
       <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
+      <c r="F67" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7">
@@ -5558,7 +5672,9 @@
         <v>1029</v>
       </c>
       <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
+      <c r="F68" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7">
@@ -5575,7 +5691,9 @@
         <v>1030</v>
       </c>
       <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
+      <c r="F69" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7">
@@ -5592,7 +5710,9 @@
         <v>1031</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="F70" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G70" s="1"/>
     </row>
     <row r="71" spans="1:7">
@@ -5609,7 +5729,9 @@
         <v>1032</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="F71" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7">
@@ -5626,7 +5748,9 @@
         <v>1033</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
+      <c r="F72" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G72" s="1"/>
     </row>
     <row r="73" spans="1:7">
@@ -5643,7 +5767,9 @@
         <v>1034</v>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
+      <c r="F73" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G73" s="1"/>
     </row>
     <row r="74" spans="1:7">
@@ -5660,7 +5786,9 @@
         <v>1035</v>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
+      <c r="F74" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G74" s="1"/>
     </row>
     <row r="75" spans="1:7">
@@ -5677,7 +5805,9 @@
         <v>1036</v>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
+      <c r="F75" t="s">
+        <v>1056</v>
+      </c>
       <c r="G75" s="1"/>
     </row>
     <row r="76" spans="1:7">
@@ -5694,7 +5824,9 @@
         <v>1037</v>
       </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="F76" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7">
@@ -5711,7 +5843,9 @@
         <v>1038</v>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
+      <c r="F77" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7">
@@ -5728,7 +5862,9 @@
         <v>1039</v>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
+      <c r="F78" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G78" s="1"/>
     </row>
     <row r="79" spans="1:7">
@@ -5745,7 +5881,9 @@
         <v>1040</v>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
+      <c r="F79" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:7">
@@ -5762,7 +5900,9 @@
         <v>1041</v>
       </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="F80" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7">
@@ -5779,7 +5919,9 @@
         <v>1042</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="F81" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7">
@@ -5798,7 +5940,9 @@
       <c r="E82" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="F82" s="1"/>
+      <c r="F82" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7">
@@ -5817,7 +5961,9 @@
       <c r="E83" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="F83" s="1"/>
+      <c r="F83" s="8" t="s">
+        <v>1056</v>
+      </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7">
@@ -5834,7 +5980,9 @@
         <v>1047</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
+      <c r="F84" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7">
@@ -5851,7 +5999,9 @@
         <v>1048</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
+      <c r="F85" s="8" t="s">
+        <v>1057</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
   </sheetData>
@@ -5865,7 +6015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AD252E-5F53-3A4D-9AA0-80CBFAFA40F2}">
   <dimension ref="A1:C525"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -8189,8 +8339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C23F4-926B-5540-9524-91E154B9C502}">
   <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView topLeftCell="A294" workbookViewId="0">
+      <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>

--- a/Heesuk/Kwak_Data fields Description.xlsx
+++ b/Heesuk/Kwak_Data fields Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/ml_lab/Heesuk/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB4499C4-A692-944B-99FF-609ABF13A744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72794F5-0212-B64E-950F-124527CDF5A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19080" windowHeight="19500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data fields Description" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="1063">
   <si>
     <t>Data fields</t>
   </si>
@@ -3331,6 +3331,26 @@
   </si>
   <si>
     <t>factor</t>
+  </si>
+  <si>
+    <t>OverallQual와 차이 대</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date (년도)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>범주(ordinal)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>date (월)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>date (년도)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4414,8 +4434,8 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4424,7 +4444,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="40.5703125" customWidth="1"/>
     <col min="4" max="4" width="31.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -4660,7 +4680,9 @@
       <c r="F15" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
@@ -4679,7 +4701,9 @@
       <c r="F16" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
@@ -4698,7 +4722,9 @@
       <c r="F17" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
@@ -4717,7 +4743,9 @@
       <c r="F18" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
@@ -4736,7 +4764,9 @@
       <c r="F19" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
@@ -4755,7 +4785,9 @@
       <c r="F20" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
@@ -4774,7 +4806,9 @@
       <c r="F21" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
@@ -4793,7 +4827,9 @@
       <c r="F22" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
@@ -4829,11 +4865,15 @@
       <c r="D24" s="12" t="s">
         <v>977</v>
       </c>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>1058</v>
+      </c>
       <c r="F24" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
@@ -4854,7 +4894,9 @@
       <c r="F25" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
@@ -4875,7 +4917,9 @@
       <c r="F26" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3">
@@ -4894,7 +4938,9 @@
       <c r="F27" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
@@ -4913,7 +4959,9 @@
       <c r="F28" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3">
@@ -4932,7 +4980,9 @@
       <c r="F29" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
@@ -4951,7 +5001,9 @@
       <c r="F30" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
@@ -4970,7 +5022,9 @@
       <c r="F31" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
@@ -4989,7 +5043,9 @@
       <c r="F32" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
@@ -5008,7 +5064,9 @@
       <c r="F33" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
@@ -5027,7 +5085,9 @@
       <c r="F34" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
@@ -5046,7 +5106,9 @@
       <c r="F35" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3">
@@ -5065,7 +5127,9 @@
       <c r="F36" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3">
@@ -5084,7 +5148,9 @@
       <c r="F37" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3">
@@ -5103,7 +5169,9 @@
       <c r="F38" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3">
@@ -5122,7 +5190,9 @@
       <c r="F39" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3">
@@ -5141,7 +5211,9 @@
       <c r="F40" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3">
@@ -5160,7 +5232,9 @@
       <c r="F41" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
@@ -5179,7 +5253,9 @@
       <c r="F42" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3">
@@ -5198,7 +5274,9 @@
       <c r="F43" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3">
@@ -5217,7 +5295,9 @@
       <c r="F44" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3">
@@ -5236,7 +5316,9 @@
       <c r="F45" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3">
@@ -5255,7 +5337,9 @@
       <c r="F46" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3">
@@ -5274,7 +5358,9 @@
       <c r="F47" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3">
@@ -5293,7 +5379,9 @@
       <c r="F48" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3">
@@ -5312,7 +5400,9 @@
       <c r="F49" t="s">
         <v>1056</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3">
@@ -5331,7 +5421,9 @@
       <c r="F50" t="s">
         <v>1056</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3">
@@ -5350,7 +5442,9 @@
       <c r="F51" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3">
@@ -5369,7 +5463,9 @@
       <c r="F52" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3">
@@ -5388,7 +5484,9 @@
       <c r="F53" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3">
@@ -5407,7 +5505,9 @@
       <c r="F54" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3">
@@ -5426,7 +5526,9 @@
       <c r="F55" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3">
@@ -5445,7 +5547,9 @@
       <c r="F56" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3">
@@ -5464,7 +5568,9 @@
       <c r="F57" t="s">
         <v>1056</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3">
@@ -5483,7 +5589,9 @@
       <c r="F58" t="s">
         <v>1056</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3">
@@ -5502,7 +5610,9 @@
       <c r="F59" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3">
@@ -5521,7 +5631,9 @@
       <c r="F60" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G60" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3">
@@ -5540,7 +5652,9 @@
       <c r="F61" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3">
@@ -5559,7 +5673,9 @@
       <c r="F62" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3">
@@ -5578,7 +5694,9 @@
       <c r="F63" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3">
@@ -5597,7 +5715,9 @@
       <c r="F64" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G64" s="1"/>
+      <c r="G64" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3">
@@ -5618,7 +5738,9 @@
       <c r="F65" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G65" s="1"/>
+      <c r="G65" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="3">
@@ -5637,7 +5759,9 @@
       <c r="F66" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G66" s="1"/>
+      <c r="G66" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3">
@@ -5656,7 +5780,9 @@
       <c r="F67" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G67" s="1"/>
+      <c r="G67" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="3">
@@ -5675,7 +5801,9 @@
       <c r="F68" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3">
@@ -5694,7 +5822,9 @@
       <c r="F69" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3">
@@ -5713,7 +5843,9 @@
       <c r="F70" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3">
@@ -5732,7 +5864,9 @@
       <c r="F71" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3">
@@ -5751,7 +5885,9 @@
       <c r="F72" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3">
@@ -5770,7 +5906,9 @@
       <c r="F73" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3">
@@ -5789,7 +5927,9 @@
       <c r="F74" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3">
@@ -5808,7 +5948,9 @@
       <c r="F75" t="s">
         <v>1056</v>
       </c>
-      <c r="G75" s="1"/>
+      <c r="G75" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3">
@@ -5827,7 +5969,9 @@
       <c r="F76" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G76" s="1"/>
+      <c r="G76" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3">
@@ -5846,7 +5990,9 @@
       <c r="F77" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3">
@@ -5865,7 +6011,9 @@
       <c r="F78" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G78" s="1"/>
+      <c r="G78" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3">
@@ -5884,7 +6032,9 @@
       <c r="F79" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G79" s="1"/>
+      <c r="G79" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3">
@@ -5903,7 +6053,9 @@
       <c r="F80" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G80" s="1"/>
+      <c r="G80" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="3">
@@ -5922,7 +6074,9 @@
       <c r="F81" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G81" s="1"/>
+      <c r="G81" s="1" t="s">
+        <v>1049</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="3">
@@ -5943,7 +6097,9 @@
       <c r="F82" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G82" s="1"/>
+      <c r="G82" s="1" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="3">
@@ -5964,7 +6120,9 @@
       <c r="F83" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="G83" s="1"/>
+      <c r="G83" s="1" t="s">
+        <v>1062</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="3">
@@ -5983,7 +6141,9 @@
       <c r="F84" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G84" s="1"/>
+      <c r="G84" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="3">
@@ -6002,7 +6162,9 @@
       <c r="F85" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="G85" s="1"/>
+      <c r="G85" s="1" t="s">
+        <v>1054</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -8339,7 +8501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0C23F4-926B-5540-9524-91E154B9C502}">
   <dimension ref="A1:B523"/>
   <sheetViews>
-    <sheetView topLeftCell="A294" workbookViewId="0">
+    <sheetView topLeftCell="A222" workbookViewId="0">
       <selection activeCell="A328" sqref="A328"/>
     </sheetView>
   </sheetViews>
